--- a/posesiones/1486011.xlsx
+++ b/posesiones/1486011.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>12</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>19</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>30</v>
@@ -2703,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>9</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>16</v>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>12</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3050,7 +3050,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>13</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3394,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>17</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R38">
         <v>27</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>20</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>20</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>23</v>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4103,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>24</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>22</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>19</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4697,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60">
         <v>26</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R62">
         <v>5</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>12</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>12</v>
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5482,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R76">
         <v>15</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>20</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5785,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>15</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5888,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R84">
         <v>22</v>
@@ -5941,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R85">
         <v>27</v>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R86">
         <v>22</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6097,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>13</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6623,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R99">
         <v>21</v>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R100">
         <v>6</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R102">
         <v>5</v>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R107">
         <v>9</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>13</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>3</v>
@@ -7452,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7684,10 +7684,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R122">
         <v>20</v>
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>32</v>
@@ -7940,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R126">
         <v>23</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8278,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8328,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R134">
         <v>26</v>
@@ -8381,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R136">
         <v>14</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R138">
         <v>12</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8628,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8678,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8919,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8969,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R147">
         <v>15</v>
@@ -9022,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9072,7 +9072,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R149">
         <v>9</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R151">
         <v>6</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9275,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R153">
         <v>27</v>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R158">
         <v>17</v>
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R159">
         <v>12</v>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9666,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9860,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10098,7 +10098,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R170">
         <v>40</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R172">
         <v>14</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10354,7 +10354,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R175">
         <v>11</v>
@@ -10404,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10636,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10686,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R182">
         <v>15</v>
@@ -10739,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R183">
         <v>8</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10983,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>15</v>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11080,7 +11080,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R190">
         <v>19</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11180,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R192">
         <v>21</v>
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11280,7 +11280,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R194">
         <v>17</v>
@@ -11333,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R195">
         <v>18</v>
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R196">
         <v>23</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11486,7 +11486,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R198">
         <v>23</v>
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R200">
         <v>21</v>
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11689,7 +11689,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>19</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12024,7 +12024,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R209">
         <v>25</v>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12218,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R213">
         <v>26</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12412,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R217">
         <v>9</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12553,7 +12553,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12603,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R221">
         <v>20</v>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R222">
         <v>10</v>
@@ -12706,7 +12706,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12747,10 +12747,10 @@
         <v>1</v>
       </c>
       <c r="P224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12885,10 +12885,10 @@
         <v>1</v>
       </c>
       <c r="P227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12938,7 +12938,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R228">
         <v>17</v>
@@ -12988,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13038,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>20</v>
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R233">
         <v>27</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13282,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13426,7 +13426,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R238">
         <v>16</v>
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R239">
         <v>16</v>
@@ -13532,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R240">
         <v>16</v>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13726,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13823,7 +13823,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R246">
         <v>31</v>
@@ -13876,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13926,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>13</v>
@@ -13976,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14026,7 +14026,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R250">
         <v>25</v>
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14129,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R252">
         <v>13</v>
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14229,7 +14229,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14276,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14326,7 +14326,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14564,7 +14564,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R261">
         <v>20</v>
@@ -14614,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R266">
         <v>3</v>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R270">
         <v>17</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15099,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15143,7 +15143,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15193,7 +15193,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R274">
         <v>5</v>
@@ -15243,7 +15243,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15387,7 +15387,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R278">
         <v>7</v>
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15675,7 +15675,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R284">
         <v>5</v>
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15772,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15869,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R288">
         <v>15</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R289">
         <v>21</v>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16025,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R291">
         <v>13</v>
@@ -16075,7 +16075,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R297">
         <v>23</v>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16416,7 +16416,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R299">
         <v>20</v>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16516,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16707,7 +16707,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R305">
         <v>6</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R307">
         <v>12</v>
@@ -16860,7 +16860,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R308">
         <v>14</v>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16960,7 +16960,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R310">
         <v>5</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17104,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17154,7 +17154,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R314">
         <v>0</v>
@@ -17207,7 +17207,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R315">
         <v>19</v>
@@ -17260,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17310,7 +17310,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>8</v>
@@ -17360,7 +17360,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17410,7 +17410,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R319">
         <v>7</v>
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17601,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17695,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17745,7 +17745,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R326">
         <v>15</v>
@@ -17798,7 +17798,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R327">
         <v>20</v>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17895,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17942,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18083,7 +18083,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18227,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R336">
         <v>15</v>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18324,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R338">
         <v>21</v>
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18427,7 +18427,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R340">
         <v>24</v>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18530,7 +18530,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R342">
         <v>8</v>
@@ -18583,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18633,7 +18633,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R344">
         <v>12</v>
@@ -18683,7 +18683,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18733,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R346">
         <v>17</v>
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18927,7 +18927,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18977,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19215,7 +19215,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19262,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19309,7 +19309,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19403,7 +19403,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19453,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R361">
         <v>15</v>
@@ -19506,7 +19506,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R362">
         <v>18</v>
@@ -19556,7 +19556,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19697,7 +19697,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19747,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R367">
         <v>0</v>
@@ -19800,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R368">
         <v>7</v>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19891,10 +19891,10 @@
         <v>1</v>
       </c>
       <c r="P370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q370">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19941,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20029,10 +20029,10 @@
         <v>1</v>
       </c>
       <c r="P373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q373">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20082,7 +20082,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R374">
         <v>11</v>
@@ -20132,7 +20132,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20179,7 +20179,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20323,7 +20323,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R379">
         <v>16</v>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20426,7 +20426,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R381">
         <v>18</v>
@@ -20479,7 +20479,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R382">
         <v>20</v>
@@ -20529,7 +20529,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20579,7 +20579,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R384">
         <v>18</v>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20676,7 +20676,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20820,7 +20820,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20867,7 +20867,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20917,7 +20917,7 @@
         <v>1</v>
       </c>
       <c r="Q391">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R391">
         <v>22</v>
@@ -20970,7 +20970,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21020,7 +21020,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R393">
         <v>13</v>
@@ -21073,7 +21073,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21123,7 +21123,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R395">
         <v>17</v>
@@ -21176,7 +21176,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R396">
         <v>21</v>
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21273,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21323,7 +21323,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21373,7 +21373,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R400">
         <v>18</v>
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21470,7 +21470,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21564,7 +21564,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21611,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21658,7 +21658,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21708,7 +21708,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R407">
         <v>1</v>
@@ -21758,7 +21758,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21805,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21855,7 +21855,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R410">
         <v>22</v>
@@ -21905,7 +21905,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21955,7 +21955,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R412">
         <v>7</v>
@@ -22008,7 +22008,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R413">
         <v>15</v>
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22111,7 +22111,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R415">
         <v>12</v>
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22211,7 +22211,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22305,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22352,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R421">
         <v>37</v>
@@ -22452,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22499,7 +22499,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22546,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22596,7 +22596,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R425">
         <v>0</v>
@@ -22649,7 +22649,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22699,7 +22699,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R427">
         <v>10</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22893,7 +22893,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22943,7 +22943,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R432">
         <v>24</v>
@@ -22996,7 +22996,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R433">
         <v>16</v>
@@ -23046,7 +23046,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23140,7 +23140,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23240,7 +23240,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R438">
         <v>28</v>
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23575,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23766,7 +23766,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R449">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23857,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>13</v>
@@ -23957,7 +23957,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24007,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R454">
         <v>21</v>
@@ -24057,7 +24057,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24151,7 +24151,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24198,7 +24198,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R459">
         <v>18</v>
@@ -24301,7 +24301,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R460">
         <v>18</v>
@@ -24354,7 +24354,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24401,7 +24401,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24501,7 +24501,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R464">
         <v>22</v>
@@ -24554,7 +24554,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24745,7 +24745,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R469">
         <v>22</v>
@@ -24798,7 +24798,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R470">
         <v>16</v>
@@ -24848,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24898,7 +24898,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R472">
         <v>15</v>
@@ -24948,7 +24948,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24998,7 +24998,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R474">
         <v>15</v>
@@ -25051,7 +25051,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25098,7 +25098,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25145,7 +25145,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25192,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25242,7 +25242,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R479">
         <v>25</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25339,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25392,7 +25392,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R482">
         <v>12</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25492,7 +25492,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R484">
         <v>17</v>
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25589,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25686,7 +25686,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R488">
         <v>14</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25780,7 +25780,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25827,7 +25827,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25974,7 +25974,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R494">
         <v>9</v>
@@ -26027,7 +26027,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26121,7 +26121,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26168,7 +26168,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26218,7 +26218,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R499">
         <v>2</v>
@@ -26271,7 +26271,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R500">
         <v>6</v>
@@ -26327,7 +26327,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R501">
         <v>4</v>
@@ -26371,10 +26371,10 @@
         <v>1</v>
       </c>
       <c r="P502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q502">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
